--- a/竞品销量.xlsx
+++ b/竞品销量.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>商品名称</t>
   </si>
@@ -128,6 +128,36 @@
   </si>
   <si>
     <t>1.0万+</t>
+  </si>
+  <si>
+    <t>9000+</t>
+  </si>
+  <si>
+    <t>4963</t>
+  </si>
+  <si>
+    <t>1.5万+</t>
+  </si>
+  <si>
+    <t>6000+</t>
+  </si>
+  <si>
+    <t>4655</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>4048</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>2727</t>
   </si>
 </sst>
 </file>
@@ -531,6 +561,9 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -542,6 +575,9 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -553,6 +589,9 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -564,6 +603,9 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -575,6 +617,9 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -586,6 +631,9 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -597,6 +645,9 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -608,6 +659,9 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -619,6 +673,9 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -630,6 +687,9 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -641,6 +701,9 @@
       <c r="C15" t="s">
         <v>34</v>
       </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -651,6 +714,9 @@
       </c>
       <c r="C16" t="s">
         <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
